--- a/dane/mala brama/dane_mala.xlsx
+++ b/dane/mala brama/dane_mala.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Gate-sensor\dane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Gate-sensor\dane\mala brama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181F294-F25B-4095-A7FC-75F7C3C2D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE3CDC-D5F2-4EFC-93F5-CF14429428C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{050324B7-EB98-4AE0-86AF-92461BECBBEB}"/>
   </bookViews>
@@ -289,34 +289,8 @@
         <name val="Arial Unicode MS"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFDAE3E3"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -409,6 +383,33 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFDAE3E3"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,820 +1241,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>zamykanie!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>zamykanie!$T$2:$T$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25258.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46080</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56661.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67242.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77482.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87722.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97962.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109909.33333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121856</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132778.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>143360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156330.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>166570.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177493.33333333334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>189440</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>199680</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>213333.33333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>zamykanie!$U$2:$U$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>-1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41A4-4204-A7BA-7402BEDB8C64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>zamykanie!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>zamykanie!$T$2:$T$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25258.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46080</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56661.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67242.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77482.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87722.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97962.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109909.33333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121856</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132778.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>143360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156330.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>166570.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177493.33333333334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>189440</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>199680</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>213333.33333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>zamykanie!$V$2:$V$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>985.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>985.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>992.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>999.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>973.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1001.3333333333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>982.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>992.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>980.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1019.3333333333334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>997.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000.3333333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41A4-4204-A7BA-7402BEDB8C64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>zamykanie!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>zamykanie!$T$2:$T$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25258.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46080</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56661.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67242.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77482.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87722.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97962.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109909.33333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121856</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132778.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>143360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156330.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>166570.66666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177493.33333333334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>189440</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>199680</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>213333.33333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>zamykanie!$W$2:$W$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>115.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>117.33333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-24.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-50.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-47.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-57.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-54.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-61</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-66</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-63.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-63.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-71.333333333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-41A4-4204-A7BA-7402BEDB8C64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="931071759"/>
-        <c:axId val="931071279"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="931071759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="931071279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="931071279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="931071759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2094,563 +1281,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3207,47 +1838,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>35215</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>102132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F76D455-275E-8A45-DF38-2D032A1B506F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2111B3C8-1C3E-45C6-93A8-A912F70B2150}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6" unboundColumnsRight="1">
@@ -3340,7 +1930,7 @@
     <tableColumn id="2" xr3:uid="{7481AF30-071B-4BE6-B43A-C55E2F98173B}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D4448614-35D4-4237-9797-175F27A87B4C}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{2C2442A1-E3C8-43B3-AA2D-A191756F58BA}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{63A14AB7-D429-43A5-B191-7788887BE7BE}" uniqueName="5" name="time" queryTableFieldId="5" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{63A14AB7-D429-43A5-B191-7788887BE7BE}" uniqueName="5" name="time" queryTableFieldId="5" dataDxfId="9">
       <calculatedColumnFormula>otw1_[[#This Row],[sensortime]]-143864</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3356,7 +1946,7 @@
     <tableColumn id="2" xr3:uid="{DCAF7BE5-37DE-4267-9CC6-41229721C7E8}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{3D40A92C-BF9F-4551-BFCE-1FBE29CA0C7C}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BEF9A22F-05A7-4B81-8C30-9BC341ABE5B8}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
-    <tableColumn id="6" xr3:uid="{BE18FB8C-3BD9-461C-A657-0502C2E9E573}" uniqueName="6" name="time" queryTableFieldId="5" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{BE18FB8C-3BD9-461C-A657-0502C2E9E573}" uniqueName="6" name="time" queryTableFieldId="5" dataDxfId="8">
       <calculatedColumnFormula>otw2_4[[#This Row],[sensortime]]-153080</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3372,7 +1962,7 @@
     <tableColumn id="2" xr3:uid="{1A726577-68D0-4FFD-AA59-CFDB7CF28900}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{50E6DEC1-F62D-4799-879C-2AF95B9A1540}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6B226EEE-2940-4DE9-A8F8-C4465B137F06}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FDA802B0-D245-47EF-8EF6-BF895B0FE83A}" uniqueName="5" name="time" queryTableFieldId="5" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{FDA802B0-D245-47EF-8EF6-BF895B0FE83A}" uniqueName="5" name="time" queryTableFieldId="5" dataDxfId="7">
       <calculatedColumnFormula>otw3_[[#This Row],[sensortime]]-135672</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3384,12 +1974,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B6ABE453-DB1A-44B9-9CF7-056C3CDACD2E}" name="zam1" displayName="zam1" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E21" xr:uid="{B6ABE453-DB1A-44B9-9CF7-056C3CDACD2E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AA511ECE-CD91-49F2-BBCC-66FB48F84278}" uniqueName="1" name="x" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{AA511ECE-CD91-49F2-BBCC-66FB48F84278}" uniqueName="1" name="x" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{EA27E5BE-EEC7-4FEF-B7AA-144F161EB239}" uniqueName="2" name="y" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1004CB3F-A401-4071-8AB8-9E892095306D}" uniqueName="3" name="z" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C9D375BD-5009-4C63-8F30-95FF6FAAA58A}" uniqueName="4" name="sensortime" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8946FADA-F887-42C1-BD11-CF48C1589F7B}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="6">
-      <calculatedColumnFormula>zam1[[#This Row],[sensortime]]-138744</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{C9D375BD-5009-4C63-8F30-95FF6FAAA58A}" uniqueName="4" name="sensortime" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8946FADA-F887-42C1-BD11-CF48C1589F7B}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="0">
+      <calculatedColumnFormula>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3401,11 +1991,11 @@
   <autoFilter ref="G1:K21" xr:uid="{12025A90-7CC2-4BE0-BCCD-A454C213A189}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{97503DD9-BFA2-4562-A41B-1DEA2A83C0CF}" uniqueName="1" name="x" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F46834E1-2D20-46F5-9E96-CE28E102980C}" uniqueName="2" name="y" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F46834E1-2D20-46F5-9E96-CE28E102980C}" uniqueName="2" name="y" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{24FB2287-59A0-49E3-982A-E7B54FD25C46}" uniqueName="3" name="z" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F859A374-963E-4AF5-9B42-E88DA154E9C4}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{68FB1179-17A2-49BC-A14A-CF1FDB8C59E5}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="5">
-      <calculatedColumnFormula>zam2[[#This Row],[sensortime]]-139768</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{68FB1179-17A2-49BC-A14A-CF1FDB8C59E5}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="1">
+      <calculatedColumnFormula>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3418,10 +2008,10 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BCC3CFC2-9076-4F1F-BE5E-3CC8C2C0B01B}" uniqueName="1" name="x" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{810B8B9D-FC66-48A7-888C-29B8622866A7}" uniqueName="2" name="y" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{9A7DD92D-4D17-4058-A9C5-86A99E7AF72B}" uniqueName="3" name="z" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9A7DD92D-4D17-4058-A9C5-86A99E7AF72B}" uniqueName="3" name="z" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{209067D4-F76C-497A-B138-286D6F6C719B}" uniqueName="4" name="sensortime" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{11609A8C-B1B9-412D-A7AF-586DB21B7A19}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="0">
-      <calculatedColumnFormula>zam3[[#This Row],[sensortime]]-131576</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{11609A8C-B1B9-412D-A7AF-586DB21B7A19}" uniqueName="5" name="time [ms]" queryTableFieldId="5" dataDxfId="2">
+      <calculatedColumnFormula>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5192,8 +3782,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5282,7 +3872,7 @@
         <v>138744</v>
       </c>
       <c r="E2" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -5298,7 +3888,7 @@
         <v>139768</v>
       </c>
       <c r="K2" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
@@ -5315,7 +3905,7 @@
         <v>131576</v>
       </c>
       <c r="Q2" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -5349,8 +3939,8 @@
         <v>148984</v>
       </c>
       <c r="E3" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>10240</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>400</v>
       </c>
       <c r="G3">
         <v>-2</v>
@@ -5365,8 +3955,8 @@
         <v>153080</v>
       </c>
       <c r="K3" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>13312</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>520</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3">
@@ -5382,12 +3972,12 @@
         <v>141816</v>
       </c>
       <c r="Q3" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>10240</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>400</v>
       </c>
       <c r="T3">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>11264</v>
+        <v>440</v>
       </c>
       <c r="U3">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5416,8 +4006,8 @@
         <v>163320</v>
       </c>
       <c r="E4" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>24576</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>960</v>
       </c>
       <c r="G4">
         <v>-2</v>
@@ -5432,8 +4022,8 @@
         <v>164344</v>
       </c>
       <c r="K4" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>24576</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>960</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4">
@@ -5449,12 +4039,12 @@
         <v>158200</v>
       </c>
       <c r="Q4" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>26624</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>1040</v>
       </c>
       <c r="T4">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>25258.666666666668</v>
+        <v>986.66666666666663</v>
       </c>
       <c r="U4">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5483,8 +4073,8 @@
         <v>173560</v>
       </c>
       <c r="E5" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>34816</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>1360</v>
       </c>
       <c r="G5">
         <v>-2</v>
@@ -5499,8 +4089,8 @@
         <v>174584</v>
       </c>
       <c r="K5" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>34816</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>1360</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5">
@@ -5516,12 +4106,12 @@
         <v>169464</v>
       </c>
       <c r="Q5" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>37888</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>1480</v>
       </c>
       <c r="T5">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>35840</v>
+        <v>1400</v>
       </c>
       <c r="U5">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5550,8 +4140,8 @@
         <v>183800</v>
       </c>
       <c r="E6" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>45056</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>1760</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5566,8 +4156,8 @@
         <v>184824</v>
       </c>
       <c r="K6" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>45056</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>1760</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6">
@@ -5583,12 +4173,12 @@
         <v>179704</v>
       </c>
       <c r="Q6" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>48128</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>1880</v>
       </c>
       <c r="T6">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>46080</v>
+        <v>1800</v>
       </c>
       <c r="U6">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5617,8 +4207,8 @@
         <v>194040</v>
       </c>
       <c r="E7" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>55296</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>2160</v>
       </c>
       <c r="G7">
         <v>-7</v>
@@ -5633,8 +4223,8 @@
         <v>195064</v>
       </c>
       <c r="K7" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>55296</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>2160</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7">
@@ -5650,12 +4240,12 @@
         <v>190968</v>
       </c>
       <c r="Q7" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>59392</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>2320</v>
       </c>
       <c r="T7">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>56661.333333333336</v>
+        <v>2213.3333333333335</v>
       </c>
       <c r="U7">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5684,8 +4274,8 @@
         <v>204280</v>
       </c>
       <c r="E8" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>65536</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>2560</v>
       </c>
       <c r="G8">
         <v>-6</v>
@@ -5700,8 +4290,8 @@
         <v>205304</v>
       </c>
       <c r="K8" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>65536</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>2560</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8">
@@ -5717,12 +4307,12 @@
         <v>202232</v>
       </c>
       <c r="Q8" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>70656</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>2760</v>
       </c>
       <c r="T8">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>67242.666666666672</v>
+        <v>2626.6666666666665</v>
       </c>
       <c r="U8">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5751,8 +4341,8 @@
         <v>214520</v>
       </c>
       <c r="E9" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>75776</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>2960</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -5767,8 +4357,8 @@
         <v>215544</v>
       </c>
       <c r="K9" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>75776</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>2960</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9">
@@ -5784,12 +4374,12 @@
         <v>212472</v>
       </c>
       <c r="Q9" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>80896</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>3160</v>
       </c>
       <c r="T9">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>77482.666666666672</v>
+        <v>3026.6666666666665</v>
       </c>
       <c r="U9">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5818,8 +4408,8 @@
         <v>224760</v>
       </c>
       <c r="E10" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>86016</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>3360</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5834,8 +4424,8 @@
         <v>225784</v>
       </c>
       <c r="K10" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>86016</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>3360</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10">
@@ -5851,12 +4441,12 @@
         <v>222712</v>
       </c>
       <c r="Q10" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>91136</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>3560</v>
       </c>
       <c r="T10">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>87722.666666666672</v>
+        <v>3426.6666666666665</v>
       </c>
       <c r="U10">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5885,8 +4475,8 @@
         <v>235000</v>
       </c>
       <c r="E11" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>96256</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>3760</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5901,8 +4491,8 @@
         <v>236024</v>
       </c>
       <c r="K11" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>96256</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>3760</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11">
@@ -5918,12 +4508,12 @@
         <v>232952</v>
       </c>
       <c r="Q11" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>101376</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>3960</v>
       </c>
       <c r="T11">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>97962.666666666672</v>
+        <v>3826.6666666666665</v>
       </c>
       <c r="U11">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -5952,8 +4542,8 @@
         <v>245240</v>
       </c>
       <c r="E12" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>106496</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>4160</v>
       </c>
       <c r="G12">
         <v>-4</v>
@@ -5968,8 +4558,8 @@
         <v>248312</v>
       </c>
       <c r="K12" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>108544</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>4240</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12">
@@ -5985,12 +4575,12 @@
         <v>246264</v>
       </c>
       <c r="Q12" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>114688</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>4480</v>
       </c>
       <c r="T12">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>109909.33333333333</v>
+        <v>4293.333333333333</v>
       </c>
       <c r="U12">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6019,8 +4609,8 @@
         <v>255480</v>
       </c>
       <c r="E13" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>116736</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>4560</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6035,8 +4625,8 @@
         <v>263672</v>
       </c>
       <c r="K13" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>123904</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>4840</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13">
@@ -6052,12 +4642,12 @@
         <v>256504</v>
       </c>
       <c r="Q13" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>124928</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>4880</v>
       </c>
       <c r="T13">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>121856</v>
+        <v>4760</v>
       </c>
       <c r="U13">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6086,8 +4676,8 @@
         <v>267768</v>
       </c>
       <c r="E14" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>129024</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>5040</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6102,8 +4692,8 @@
         <v>273912</v>
       </c>
       <c r="K14" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>134144</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>5240</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14">
@@ -6119,12 +4709,12 @@
         <v>266744</v>
       </c>
       <c r="Q14" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>135168</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>5280</v>
       </c>
       <c r="T14">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>132778.66666666666</v>
+        <v>5186.666666666667</v>
       </c>
       <c r="U14">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6153,8 +4743,8 @@
         <v>279032</v>
       </c>
       <c r="E15" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>140288</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>5480</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -6169,8 +4759,8 @@
         <v>284152</v>
       </c>
       <c r="K15" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>144384</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>5640</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15">
@@ -6186,12 +4776,12 @@
         <v>276984</v>
       </c>
       <c r="Q15" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>145408</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>5680</v>
       </c>
       <c r="T15">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>143360</v>
+        <v>5600</v>
       </c>
       <c r="U15">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6220,8 +4810,8 @@
         <v>292344</v>
       </c>
       <c r="E16" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>153600</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>6000</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6236,8 +4826,8 @@
         <v>299512</v>
       </c>
       <c r="K16" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>159744</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>6240</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16">
@@ -6253,12 +4843,12 @@
         <v>287224</v>
       </c>
       <c r="Q16" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>155648</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>6080</v>
       </c>
       <c r="T16">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>156330.66666666666</v>
+        <v>6106.666666666667</v>
       </c>
       <c r="U16">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6287,8 +4877,8 @@
         <v>302584</v>
       </c>
       <c r="E17" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>163840</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>6400</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -6303,8 +4893,8 @@
         <v>309752</v>
       </c>
       <c r="K17" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>169984</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>6640</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17">
@@ -6320,12 +4910,12 @@
         <v>297464</v>
       </c>
       <c r="Q17" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>165888</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>6480</v>
       </c>
       <c r="T17">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>166570.66666666666</v>
+        <v>6506.666666666667</v>
       </c>
       <c r="U17">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6354,8 +4944,8 @@
         <v>313848</v>
       </c>
       <c r="E18" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>175104</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>6840</v>
       </c>
       <c r="G18">
         <v>-3</v>
@@ -6370,8 +4960,8 @@
         <v>321016</v>
       </c>
       <c r="K18" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>181248</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>7080</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18">
@@ -6387,12 +4977,12 @@
         <v>307704</v>
       </c>
       <c r="Q18" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>176128</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>6880</v>
       </c>
       <c r="T18">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>177493.33333333334</v>
+        <v>6933.333333333333</v>
       </c>
       <c r="U18">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6421,8 +5011,8 @@
         <v>325112</v>
       </c>
       <c r="E19" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>186368</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>7280</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6437,8 +5027,8 @@
         <v>334328</v>
       </c>
       <c r="K19" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>194560</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>7600</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19">
@@ -6454,12 +5044,12 @@
         <v>318968</v>
       </c>
       <c r="Q19" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>187392</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>7320</v>
       </c>
       <c r="T19">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>189440</v>
+        <v>7400</v>
       </c>
       <c r="U19">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6488,8 +5078,8 @@
         <v>335352</v>
       </c>
       <c r="E20" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>196608</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>7680</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -6504,8 +5094,8 @@
         <v>344568</v>
       </c>
       <c r="K20" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>204800</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>8000</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20">
@@ -6521,12 +5111,12 @@
         <v>329208</v>
       </c>
       <c r="Q20" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>197632</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>7720</v>
       </c>
       <c r="T20">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>199680</v>
+        <v>7800</v>
       </c>
       <c r="U20">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6555,8 +5145,8 @@
         <v>350712</v>
       </c>
       <c r="E21" s="13">
-        <f>zam1[[#This Row],[sensortime]]-138744</f>
-        <v>211968</v>
+        <f>(zam1[[#This Row],[sensortime]]-138744)*0.0390625</f>
+        <v>8280</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -6571,8 +5161,8 @@
         <v>358904</v>
       </c>
       <c r="K21" s="13">
-        <f>zam2[[#This Row],[sensortime]]-139768</f>
-        <v>219136</v>
+        <f>(zam2[[#This Row],[sensortime]]-139768)*0.0390625</f>
+        <v>8560</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21">
@@ -6588,12 +5178,12 @@
         <v>340472</v>
       </c>
       <c r="Q21" s="13">
-        <f>zam3[[#This Row],[sensortime]]-131576</f>
-        <v>208896</v>
+        <f>(zam3[[#This Row],[sensortime]]-131576)*0.0390625</f>
+        <v>8160</v>
       </c>
       <c r="T21">
         <f>(zam3[[#This Row],[time '[ms']]]+zam2[[#This Row],[time '[ms']]]+zam1[[#This Row],[time '[ms']]])/3</f>
-        <v>213333.33333333334</v>
+        <v>8333.3333333333339</v>
       </c>
       <c r="U21">
         <f>(zam1[[#This Row],[x]]+zam2[[#This Row],[x]]+zam3[[#This Row],[x]])/3</f>
@@ -6664,11 +5254,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
